--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Abouei\exhibition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48677DC8-2EBB-44B2-AB26-3223792856B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16137314-2292-4174-89BF-0F5018AF3AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28B8157B-ED61-4AAA-BE04-22B40E85CD0D}"/>
   </bookViews>
@@ -414,7 +414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D040E67-C79B-47FA-BFA7-ED5CCE2315E1}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
